--- a/medicine/Mort/Cimetière_de_Bunhill_Fields/Cimetière_de_Bunhill_Fields.xlsx
+++ b/medicine/Mort/Cimetière_de_Bunhill_Fields/Cimetière_de_Bunhill_Fields.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Bunhill_Fields</t>
+          <t>Cimetière_de_Bunhill_Fields</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bunhill Fields est un cimetière situé au Royaume-Uni, dans l'arrondissement de Islington au nord de la ville de Londres et dirigé par la municipalité de Londres.
 Du XVIIe siècle jusqu'au milieu du XIXe siècle, ce site a été utilisé pour les enterrements de personnes non-conformistes ; il abrite aujourd'hui les tombes de nombreuses personnalités.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Bunhill_Fields</t>
+          <t>Cimetière_de_Bunhill_Fields</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bunhill Fields faisait partie du manoir de Finsbury (à l'origine Fensbury), qui est très ancien. Le manoir appartenait à la cathédrale Saint-Paul depuis 1104. En 1315, le manoir a été accordé par Robert de Baldock au maire et à la municipalité de Londres, permettant davantage son accès au public.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Bunhill_Fields</t>
+          <t>Cimetière_de_Bunhill_Fields</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -551,7 +567,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Bunhill_Fields</t>
+          <t>Cimetière_de_Bunhill_Fields</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -570,6 +586,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -577,7 +595,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Bunhill_Fields</t>
+          <t>Cimetière_de_Bunhill_Fields</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -595,7 +613,9 @@
           <t>Tombes célèbres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>On y trouve notamment :
 Thomas Bayes (1702 – 1761), statisticien ami de Richard Price
